--- a/data/fama_french_data.xlsx
+++ b/data/fama_french_data.xlsx
@@ -574,7 +574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,13 +617,13 @@
         <v>-0.04330000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0611</v>
+        <v>0.062</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0134</v>
+        <v>-0.0148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0227</v>
+        <v>0.0233</v>
       </c>
       <c r="F2" t="n">
         <v>0.004099999999999999</v>
@@ -637,13 +637,13 @@
         <v>0.0288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2162</v>
+        <v>0.2191</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0851</v>
+        <v>-0.09380000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1879</v>
+        <v>0.1863</v>
       </c>
       <c r="F3" t="n">
         <v>0.0043</v>
@@ -657,13 +657,13 @@
         <v>0.0567</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1635</v>
+        <v>-0.1682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0813</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0592</v>
+        <v>-0.0636</v>
       </c>
       <c r="F4" t="n">
         <v>0.004699999999999999</v>
@@ -677,13 +677,13 @@
         <v>-0.0594</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.06470000000000001</v>
+        <v>-0.0617</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07869999999999999</v>
+        <v>0.0771</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.08110000000000001</v>
+        <v>-0.07930000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>0.0046</v>
@@ -697,13 +697,13 @@
         <v>-0.0392</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0583</v>
+        <v>-0.0561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0551</v>
+        <v>0.0533</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0858</v>
+        <v>-0.0848</v>
       </c>
       <c r="F6" t="n">
         <v>0.005</v>
@@ -720,10 +720,10 @@
         <v>0.132</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.07820000000000001</v>
+        <v>-0.0801</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1699</v>
+        <v>0.1701</v>
       </c>
       <c r="F7" t="n">
         <v>0.004</v>
@@ -737,13 +737,13 @@
         <v>-0.0203</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0268</v>
+        <v>-0.026</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0888</v>
+        <v>0.0881</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003699999999999999</v>
+        <v>0.0038</v>
       </c>
       <c r="F8" t="n">
         <v>0.0048</v>
@@ -757,13 +757,13 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0015</v>
+        <v>-0.0013</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0097</v>
+        <v>-0.008699999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.062</v>
+        <v>0.0623</v>
       </c>
       <c r="F9" t="n">
         <v>0.005</v>
@@ -777,13 +777,13 @@
         <v>-0.0494</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0138</v>
+        <v>-0.0122</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0779</v>
+        <v>0.07680000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0271</v>
+        <v>0.0248</v>
       </c>
       <c r="F10" t="n">
         <v>0.0051</v>
@@ -797,13 +797,13 @@
         <v>-0.022</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0331</v>
+        <v>-0.0337</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.062</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0407</v>
+        <v>-0.03920000000000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.005600000000000001</v>
@@ -817,13 +817,13 @@
         <v>-0.1021</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0299</v>
+        <v>-0.0288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1304</v>
+        <v>0.1285</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0189</v>
+        <v>-0.0181</v>
       </c>
       <c r="F12" t="n">
         <v>0.0051</v>
@@ -840,10 +840,10 @@
         <v>0.0123</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08170000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>0.005</v>
@@ -857,13 +857,13 @@
         <v>0.0367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.073</v>
+        <v>0.0722</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0479</v>
+        <v>-0.0457</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2451</v>
+        <v>-0.2476</v>
       </c>
       <c r="F14" t="n">
         <v>0.0054</v>
@@ -877,13 +877,13 @@
         <v>-0.09670000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.004399999999999999</v>
+        <v>-0.0036</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1296</v>
+        <v>0.1286</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1289</v>
+        <v>0.1295</v>
       </c>
       <c r="F15" t="n">
         <v>0.0038</v>
@@ -897,13 +897,13 @@
         <v>-0.0684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0059</v>
+        <v>0.0069</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06939999999999999</v>
+        <v>0.06849999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08769999999999999</v>
+        <v>0.0897</v>
       </c>
       <c r="F16" t="n">
         <v>0.0042</v>
@@ -917,13 +917,13 @@
         <v>0.0833</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01</v>
+        <v>0.009500000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0441</v>
+        <v>-0.043</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.07579999999999999</v>
+        <v>-0.0751</v>
       </c>
       <c r="F17" t="n">
         <v>0.0039</v>
@@ -937,13 +937,13 @@
         <v>0.0104</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0285</v>
+        <v>0.0282</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0366</v>
+        <v>0.0368</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0244</v>
+        <v>0.0253</v>
       </c>
       <c r="F18" t="n">
         <v>0.0032</v>
@@ -957,13 +957,13 @@
         <v>-0.0166</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0653</v>
+        <v>0.06549999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.008799999999999999</v>
+        <v>-0.008499999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.006200000000000001</v>
+        <v>0.0066</v>
       </c>
       <c r="F19" t="n">
         <v>0.0028</v>
@@ -977,13 +977,13 @@
         <v>-0.0183</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0393</v>
+        <v>-0.0389</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0565</v>
+        <v>0.0551</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0577</v>
+        <v>0.05880000000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.003</v>
@@ -1000,10 +1000,10 @@
         <v>0.0279</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0264</v>
+        <v>0.0261</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0585</v>
+        <v>0.0584</v>
       </c>
       <c r="F21" t="n">
         <v>0.0031</v>
@@ -1020,10 +1020,10 @@
         <v>-0.0597</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0185</v>
+        <v>0.0174</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1182</v>
+        <v>0.1176</v>
       </c>
       <c r="F22" t="n">
         <v>0.0028</v>
@@ -1037,13 +1037,13 @@
         <v>0.0268</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0779</v>
+        <v>0.0771</v>
       </c>
       <c r="D23" t="n">
         <v>-0.07440000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.08190000000000001</v>
+        <v>-0.08250000000000002</v>
       </c>
       <c r="F23" t="n">
         <v>0.0022</v>
@@ -1057,13 +1057,13 @@
         <v>0.0771</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.003099999999999999</v>
+        <v>-0.002999999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0233</v>
+        <v>0.0239</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.08410000000000001</v>
+        <v>-0.0852</v>
       </c>
       <c r="F24" t="n">
         <v>0.0017</v>
@@ -1077,13 +1077,13 @@
         <v>0.0175</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0494</v>
+        <v>0.0488</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0014</v>
+        <v>0.0022</v>
       </c>
       <c r="F25" t="n">
         <v>0.0015</v>
@@ -1097,13 +1097,13 @@
         <v>-0.013</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0132</v>
+        <v>0.0133</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0352</v>
+        <v>0.0358</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0382</v>
+        <v>0.0389</v>
       </c>
       <c r="F26" t="n">
         <v>0.0014</v>
@@ -1117,13 +1117,13 @@
         <v>-0.0216</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.009400000000000002</v>
+        <v>-0.008699999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0234</v>
+        <v>0.0229</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06899999999999999</v>
+        <v>0.06949999999999999</v>
       </c>
       <c r="F27" t="n">
         <v>0.0013</v>
@@ -1137,13 +1137,13 @@
         <v>0.0437</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0427</v>
+        <v>0.0434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0121</v>
+        <v>0.0119</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0154</v>
+        <v>-0.0151</v>
       </c>
       <c r="F28" t="n">
         <v>0.0013</v>
@@ -1157,13 +1157,13 @@
         <v>-0.0505</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0599</v>
+        <v>0.0611</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0411</v>
+        <v>0.0403</v>
       </c>
       <c r="E29" t="n">
-        <v>0.081</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="F29" t="n">
         <v>0.0015</v>
@@ -1177,13 +1177,13 @@
         <v>-0.0124</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0312</v>
+        <v>-0.0307</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0171</v>
+        <v>0.0167</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0311</v>
+        <v>0.033</v>
       </c>
       <c r="F30" t="n">
         <v>0.0014</v>
@@ -1197,13 +1197,13 @@
         <v>-0.0708</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04330000000000001</v>
+        <v>0.04410000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0017</v>
+        <v>0.001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06280000000000001</v>
+        <v>0.0616</v>
       </c>
       <c r="F31" t="n">
         <v>0.0013</v>
@@ -1217,13 +1217,13 @@
         <v>-0.0803</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0507</v>
+        <v>-0.0511</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0356</v>
+        <v>-0.0372</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0349</v>
+        <v>0.0389</v>
       </c>
       <c r="F32" t="n">
         <v>0.0015</v>
@@ -1237,13 +1237,13 @@
         <v>0.0064</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.028</v>
+        <v>-0.0273</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0337</v>
+        <v>0.0345</v>
       </c>
       <c r="E33" t="n">
-        <v>0.019</v>
+        <v>0.0204</v>
       </c>
       <c r="F33" t="n">
         <v>0.0014</v>
@@ -1257,13 +1257,13 @@
         <v>-0.1021</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0253</v>
+        <v>0.0257</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0163</v>
+        <v>0.0158</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09229999999999999</v>
+        <v>0.0927</v>
       </c>
       <c r="F34" t="n">
         <v>0.0014</v>
@@ -1277,13 +1277,13 @@
         <v>0.0798</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.033</v>
+        <v>-0.0327</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0393</v>
+        <v>-0.0381</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0517</v>
+        <v>-0.0544</v>
       </c>
       <c r="F35" t="n">
         <v>0.0014</v>
@@ -1300,10 +1300,10 @@
         <v>0.0335</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0139</v>
+        <v>-0.0115</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1607</v>
+        <v>-0.1621</v>
       </c>
       <c r="F36" t="n">
         <v>0.0012</v>
@@ -1317,10 +1317,10 @@
         <v>-0.0565</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001</v>
+        <v>0.0022</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0239</v>
+        <v>0.0224</v>
       </c>
       <c r="E37" t="n">
         <v>0.0975</v>
@@ -1337,13 +1337,13 @@
         <v>-0.0247</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0138</v>
+        <v>0.014</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0076</v>
+        <v>-0.0063</v>
       </c>
       <c r="E38" t="n">
-        <v>0.017</v>
+        <v>0.0165</v>
       </c>
       <c r="F38" t="n">
         <v>0.001</v>
@@ -1360,10 +1360,10 @@
         <v>-0.0037</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0124</v>
+        <v>-0.0129</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0134</v>
+        <v>0.0126</v>
       </c>
       <c r="F39" t="n">
         <v>0.0009</v>
@@ -1377,13 +1377,13 @@
         <v>0.0119</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0103</v>
+        <v>0.0114</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0205</v>
+        <v>-0.0183</v>
       </c>
       <c r="E40" t="n">
-        <v>0.017</v>
+        <v>0.0158</v>
       </c>
       <c r="F40" t="n">
         <v>0.001</v>
@@ -1397,13 +1397,13 @@
         <v>0.08320000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0074</v>
+        <v>0.0077</v>
       </c>
       <c r="D41" t="n">
-        <v>0.009899999999999999</v>
+        <v>0.0127</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0939</v>
+        <v>-0.09229999999999999</v>
       </c>
       <c r="F41" t="n">
         <v>0.001</v>
@@ -1417,13 +1417,13 @@
         <v>0.0614</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0458</v>
+        <v>0.048</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002</v>
+        <v>0.0062</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.1076</v>
+        <v>-0.1061</v>
       </c>
       <c r="F42" t="n">
         <v>0.0009</v>
@@ -1437,13 +1437,13 @@
         <v>0.0152</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0185</v>
+        <v>0.0184</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0049</v>
+        <v>0.0029</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.009899999999999999</v>
+        <v>-0.009000000000000001</v>
       </c>
       <c r="F43" t="n">
         <v>0.001</v>
@@ -1457,13 +1457,13 @@
         <v>0.0242</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.05180000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0101</v>
+        <v>-0.0112</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0024</v>
+        <v>-0.0025</v>
       </c>
       <c r="F44" t="n">
         <v>0.0007000000000000001</v>
@@ -1477,13 +1477,13 @@
         <v>0.0241</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0277</v>
+        <v>0.0269</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0168</v>
+        <v>0.0161</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.0048</v>
+        <v>-0.0055</v>
       </c>
       <c r="F45" t="n">
         <v>0.0007000000000000001</v>
@@ -1497,10 +1497,10 @@
         <v>-0.0116</v>
       </c>
       <c r="C46" t="n">
-        <v>0.007899999999999999</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0013</v>
+        <v>0.0018</v>
       </c>
       <c r="E46" t="n">
         <v>-0.0011</v>
@@ -1517,13 +1517,13 @@
         <v>0.0615</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0271</v>
+        <v>0.027</v>
       </c>
       <c r="D47" t="n">
         <v>0.0199</v>
       </c>
       <c r="E47" t="n">
-        <v>0.038</v>
+        <v>0.0406</v>
       </c>
       <c r="F47" t="n">
         <v>0.0007000000000000001</v>
@@ -1537,13 +1537,13 @@
         <v>0.0142</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0206</v>
+        <v>0.0207</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0187</v>
+        <v>0.0188</v>
       </c>
       <c r="E48" t="n">
-        <v>0.017</v>
+        <v>0.0153</v>
       </c>
       <c r="F48" t="n">
         <v>0.0007000000000000001</v>
@@ -1557,13 +1557,13 @@
         <v>0.0437</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0268</v>
+        <v>-0.0263</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0166</v>
+        <v>0.0168</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0561</v>
+        <v>-0.0549</v>
       </c>
       <c r="F49" t="n">
         <v>0.0008</v>
@@ -1577,13 +1577,13 @@
         <v>0.0222</v>
       </c>
       <c r="C50" t="n">
-        <v>0.026</v>
+        <v>0.0261</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0252</v>
+        <v>0.0253</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0266</v>
+        <v>0.0265</v>
       </c>
       <c r="F50" t="n">
         <v>0.0007000000000000001</v>
@@ -1597,13 +1597,13 @@
         <v>0.0146</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.015</v>
+        <v>-0.0146</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0092</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0101</v>
+        <v>-0.0108</v>
       </c>
       <c r="F51" t="n">
         <v>0.0005999999999999999</v>
@@ -1620,10 +1620,10 @@
         <v>0.0184</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0033</v>
+        <v>0.0032</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0031</v>
+        <v>0.0026</v>
       </c>
       <c r="F52" t="n">
         <v>0.0009</v>
@@ -1637,13 +1637,13 @@
         <v>-0.0175</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0165</v>
+        <v>-0.0166</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0299</v>
+        <v>-0.0294</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0529</v>
+        <v>-0.053</v>
       </c>
       <c r="F53" t="n">
         <v>0.0008</v>
@@ -1657,13 +1657,13 @@
         <v>0.0123</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0018</v>
+        <v>-0.0019</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0023</v>
+        <v>-0.0017</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0165</v>
+        <v>0.0156</v>
       </c>
       <c r="F54" t="n">
         <v>0.0005999999999999999</v>
@@ -1683,7 +1683,7 @@
         <v>0.0131</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0217</v>
+        <v>0.0213</v>
       </c>
       <c r="F55" t="n">
         <v>0.0008</v>
@@ -1697,10 +1697,10 @@
         <v>-0.0396</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0375</v>
+        <v>-0.037</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0338</v>
+        <v>0.0332</v>
       </c>
       <c r="E56" t="n">
         <v>-0.0218</v>
@@ -1717,13 +1717,13 @@
         <v>0.0019</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.0145</v>
+        <v>-0.0138</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0107</v>
+        <v>0.0111</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0147</v>
+        <v>-0.0148</v>
       </c>
       <c r="F57" t="n">
         <v>0.0011</v>
@@ -1737,13 +1737,13 @@
         <v>0.0171</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0312</v>
+        <v>0.0313</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0004</v>
+        <v>0.0009000000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.05359999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="F58" t="n">
         <v>0.0011</v>
@@ -1757,13 +1757,13 @@
         <v>0.0154</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0024</v>
+        <v>0.0026</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0018</v>
+        <v>-0.0014</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.0141</v>
+        <v>-0.0127</v>
       </c>
       <c r="F59" t="n">
         <v>0.0011</v>
@@ -1777,13 +1777,13 @@
         <v>0.0469</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03870000000000001</v>
+        <v>0.0388</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0158</v>
+        <v>0.016</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0338</v>
+        <v>0.0331</v>
       </c>
       <c r="F60" t="n">
         <v>0.0015</v>
@@ -1797,13 +1797,13 @@
         <v>0.0359</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0009</v>
+        <v>0.0013</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0001999999999999999</v>
+        <v>-0.0004999999999999998</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0267</v>
+        <v>-0.0271</v>
       </c>
       <c r="F61" t="n">
         <v>0.0016</v>
@@ -1820,10 +1820,10 @@
         <v>-0.0156</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0217</v>
+        <v>0.0223</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0335</v>
+        <v>0.0321</v>
       </c>
       <c r="F62" t="n">
         <v>0.0016</v>
@@ -1837,13 +1837,13 @@
         <v>0.0205</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.003900000000000001</v>
+        <v>-0.004099999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0179</v>
+        <v>0.017</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0334</v>
+        <v>0.0353</v>
       </c>
       <c r="F63" t="n">
         <v>0.0016</v>
@@ -1857,13 +1857,13 @@
         <v>-0.0176</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0114</v>
+        <v>-0.0119</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0235</v>
+        <v>0.0226</v>
       </c>
       <c r="E64" t="n">
-        <v>0.007600000000000001</v>
+        <v>0.006199999999999999</v>
       </c>
       <c r="F64" t="n">
         <v>0.0021</v>
@@ -1877,13 +1877,13 @@
         <v>-0.024</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.0376</v>
+        <v>-0.0372</v>
       </c>
       <c r="D65" t="n">
         <v>0.0026</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.006400000000000001</v>
+        <v>-0.0048</v>
       </c>
       <c r="F65" t="n">
         <v>0.0021</v>
@@ -1897,13 +1897,13 @@
         <v>0.0389</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0304</v>
+        <v>0.0312</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.004200000000000001</v>
+        <v>-0.0035</v>
       </c>
       <c r="E66" t="n">
-        <v>0.006699999999999999</v>
+        <v>0.0069</v>
       </c>
       <c r="F66" t="n">
         <v>0.0024</v>
@@ -1917,13 +1917,13 @@
         <v>0.008</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0278</v>
+        <v>0.0282</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0305</v>
+        <v>0.0304</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0229</v>
+        <v>0.0228</v>
       </c>
       <c r="F67" t="n">
         <v>0.0023</v>
@@ -1937,13 +1937,13 @@
         <v>0.0416</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0311</v>
+        <v>0.0314</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.005900000000000001</v>
+        <v>-0.0054</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0021</v>
+        <v>0.003</v>
       </c>
       <c r="F68" t="n">
         <v>0.0024</v>
@@ -1960,10 +1960,10 @@
         <v>-0.0068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0168</v>
+        <v>0.0164</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0257</v>
+        <v>0.0238</v>
       </c>
       <c r="F69" t="n">
         <v>0.003</v>
@@ -1977,13 +1977,13 @@
         <v>0.0078</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.0037</v>
+        <v>-0.0038</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0103</v>
+        <v>0.0098</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0374</v>
+        <v>0.0372</v>
       </c>
       <c r="F70" t="n">
         <v>0.0029</v>
@@ -1997,13 +1997,13 @@
         <v>-0.0175</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.0092</v>
+        <v>-0.009600000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.007200000000000001</v>
+        <v>0.0068</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.0103</v>
+        <v>-0.0112</v>
       </c>
       <c r="F71" t="n">
         <v>0.0027</v>
@@ -2017,13 +2017,13 @@
         <v>0.0392</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0128</v>
+        <v>0.013</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.008499999999999999</v>
+        <v>-0.0089</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0058</v>
+        <v>0.0066</v>
       </c>
       <c r="F72" t="n">
         <v>0.0031</v>
@@ -2037,13 +2037,13 @@
         <v>0.0007000000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.0014</v>
+        <v>-0.0008999999999999993</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0056</v>
+        <v>0.0054</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0108</v>
+        <v>0.0109</v>
       </c>
       <c r="F73" t="n">
         <v>0.0032</v>
@@ -2057,13 +2057,13 @@
         <v>0.0339</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05750000000000001</v>
+        <v>0.0577</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0134</v>
+        <v>0.0144</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0303</v>
+        <v>0.0288</v>
       </c>
       <c r="F74" t="n">
         <v>0.0035</v>
@@ -2077,10 +2077,10 @@
         <v>0.0004000000000000002</v>
       </c>
       <c r="C75" t="n">
+        <v>-0.0005999999999999998</v>
+      </c>
+      <c r="D75" t="n">
         <v>-0.0002999999999999999</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.0008000000000000004</v>
       </c>
       <c r="E75" t="n">
         <v>-0.015</v>
@@ -2097,10 +2097,10 @@
         <v>0.0183</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0386</v>
+        <v>0.0382</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0105</v>
+        <v>0.0092</v>
       </c>
       <c r="E76" t="n">
         <v>0.0163</v>
@@ -2117,10 +2117,10 @@
         <v>0.0109</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.0105</v>
+        <v>-0.0107</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0273</v>
+        <v>0.027</v>
       </c>
       <c r="E77" t="n">
         <v>0.0097</v>
@@ -2137,13 +2137,13 @@
         <v>-0.0314</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.0266</v>
+        <v>-0.0255</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0288</v>
+        <v>0.0282</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.0322</v>
+        <v>-0.03270000000000001</v>
       </c>
       <c r="F78" t="n">
         <v>0.0043</v>
@@ -2157,13 +2157,13 @@
         <v>0.0005000000000000004</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0004000000000000002</v>
+        <v>0.0002000000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0132</v>
+        <v>0.012</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0187</v>
+        <v>0.0194</v>
       </c>
       <c r="F79" t="n">
         <v>0.004</v>
@@ -2180,10 +2180,10 @@
         <v>-0.0359</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0307</v>
+        <v>0.0302</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.0182</v>
+        <v>-0.0173</v>
       </c>
       <c r="F80" t="n">
         <v>0.004</v>
@@ -2197,13 +2197,13 @@
         <v>0.0245</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0144</v>
+        <v>0.0143</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.0156</v>
+        <v>-0.0162</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0304</v>
+        <v>-0.0296</v>
       </c>
       <c r="F81" t="n">
         <v>0.0042</v>
@@ -2217,13 +2217,13 @@
         <v>0.0225</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.008800000000000001</v>
+        <v>-0.009300000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003699999999999999</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.0054</v>
+        <v>-0.0055</v>
       </c>
       <c r="F82" t="n">
         <v>0.004099999999999999</v>
@@ -2240,10 +2240,10 @@
         <v>0.0213</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001099999999999999</v>
+        <v>0.0015</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0017</v>
+        <v>0.002099999999999999</v>
       </c>
       <c r="F83" t="n">
         <v>0.004099999999999999</v>
@@ -2257,13 +2257,13 @@
         <v>0.0213</v>
       </c>
       <c r="C84" t="n">
-        <v>0.012</v>
+        <v>0.0114</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0049</v>
+        <v>0.0053</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.0059</v>
+        <v>-0.0061</v>
       </c>
       <c r="F84" t="n">
         <v>0.0042</v>
@@ -2277,13 +2277,13 @@
         <v>0.0127</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.007399999999999999</v>
+        <v>-0.007299999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0312</v>
+        <v>0.0311</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0124</v>
+        <v>0.0119</v>
       </c>
       <c r="F85" t="n">
         <v>0.004</v>
@@ -2297,13 +2297,13 @@
         <v>0.0184</v>
       </c>
       <c r="C86" t="n">
-        <v>0.006</v>
+        <v>0.0058</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.0025</v>
+        <v>-0.002599999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.006200000000000001</v>
+        <v>0.0068</v>
       </c>
       <c r="F86" t="n">
         <v>0.0044</v>
@@ -2317,13 +2317,13 @@
         <v>-0.0158</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0167</v>
+        <v>0.0156</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0021</v>
+        <v>0.0026</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.009800000000000001</v>
+        <v>-0.009700000000000002</v>
       </c>
       <c r="F87" t="n">
         <v>0.0038</v>
@@ -2337,13 +2337,13 @@
         <v>0.0111</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0051</v>
+        <v>0.0058</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.004</v>
+        <v>-0.005099999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0293</v>
+        <v>0.0299</v>
       </c>
       <c r="F88" t="n">
         <v>0.0043</v>
@@ -2357,13 +2357,13 @@
         <v>0.0393</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.0174</v>
+        <v>-0.0173</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.009399999999999999</v>
+        <v>-0.009899999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0029</v>
+        <v>0.002</v>
       </c>
       <c r="F89" t="n">
         <v>0.0044</v>
@@ -2377,13 +2377,13 @@
         <v>0.0365</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0068</v>
+        <v>0.006399999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.002200000000000001</v>
+        <v>-0.0021</v>
       </c>
       <c r="E90" t="n">
-        <v>0.001399999999999999</v>
+        <v>0.0006999999999999992</v>
       </c>
       <c r="F90" t="n">
         <v>0.004099999999999999</v>
@@ -2397,13 +2397,13 @@
         <v>-0.0156</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0118</v>
+        <v>0.0116</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.007000000000000001</v>
+        <v>-0.006700000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0091</v>
       </c>
       <c r="F91" t="n">
         <v>0.004</v>
@@ -2417,13 +2417,13 @@
         <v>-0.0333</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.0205</v>
+        <v>-0.0221</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.0315</v>
+        <v>-0.0333</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0321</v>
+        <v>0.0334</v>
       </c>
       <c r="F92" t="n">
         <v>0.004</v>
@@ -2437,10 +2437,10 @@
         <v>0.0134</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0025</v>
+        <v>0.0028</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.0149</v>
+        <v>-0.0147</v>
       </c>
       <c r="E93" t="n">
         <v>0.0052</v>
@@ -2460,10 +2460,10 @@
         <v>-0.019</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.0189</v>
+        <v>-0.0191</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04890000000000001</v>
+        <v>0.0495</v>
       </c>
       <c r="F94" t="n">
         <v>0.0032</v>
@@ -2477,13 +2477,13 @@
         <v>0.0212</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0057</v>
+        <v>0.0044</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.0259</v>
+        <v>-0.0279</v>
       </c>
       <c r="E95" t="n">
-        <v>0.052</v>
+        <v>0.0534</v>
       </c>
       <c r="F95" t="n">
         <v>0.0032</v>
@@ -2497,13 +2497,13 @@
         <v>-0.0449</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.0246</v>
+        <v>-0.0259</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.0066</v>
+        <v>-0.005999999999999998</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0124</v>
+        <v>0.0133</v>
       </c>
       <c r="F96" t="n">
         <v>0.0034</v>
@@ -2517,13 +2517,13 @@
         <v>-0.005999999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0041</v>
+        <v>0.0043</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.0032</v>
+        <v>-0.0025</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.06899999999999999</v>
       </c>
       <c r="F97" t="n">
         <v>0.0027</v>
@@ -2537,13 +2537,13 @@
         <v>-0.06150000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.0068</v>
+        <v>-0.0077</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03879999999999999</v>
+        <v>0.04219999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.07669999999999999</v>
+        <v>-0.07539999999999999</v>
       </c>
       <c r="F98" t="n">
         <v>0.0021</v>
@@ -2557,13 +2557,13 @@
         <v>-0.0296</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.0014</v>
+        <v>-0.0028</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.007500000000000001</v>
+        <v>-0.0071</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0624</v>
+        <v>0.0623</v>
       </c>
       <c r="F99" t="n">
         <v>0.0013</v>
@@ -2577,13 +2577,13 @@
         <v>-0.007600000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.009600000000000001</v>
+        <v>0.0094</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0031</v>
+        <v>0.0052</v>
       </c>
       <c r="E100" t="n">
-        <v>0.04269999999999999</v>
+        <v>0.0444</v>
       </c>
       <c r="F100" t="n">
         <v>0.0017</v>
@@ -2597,13 +2597,13 @@
         <v>0.0478</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.0141</v>
+        <v>-0.0154</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.0078</v>
+        <v>-0.0091</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.0015</v>
+        <v>-0.0013</v>
       </c>
       <c r="F101" t="n">
         <v>0.0018</v>
@@ -2617,13 +2617,13 @@
         <v>0.0204</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0323</v>
+        <v>0.0313</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.0127</v>
+        <v>-0.0135</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0339</v>
+        <v>0.0349</v>
       </c>
       <c r="F102" t="n">
         <v>0.0018</v>
@@ -2637,13 +2637,13 @@
         <v>-0.0827</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0139</v>
+        <v>0.0141</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.026</v>
+        <v>-0.0253</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1271</v>
+        <v>0.1292</v>
       </c>
       <c r="F103" t="n">
         <v>0.0017</v>
@@ -2657,13 +2657,13 @@
         <v>-0.006200000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0262</v>
+        <v>0.0271</v>
       </c>
       <c r="D104" t="n">
         <v>0.0542</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.0498</v>
+        <v>-0.0492</v>
       </c>
       <c r="F104" t="n">
         <v>0.0015</v>
@@ -2677,10 +2677,10 @@
         <v>0.0166</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0367</v>
+        <v>0.03630000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0158</v>
+        <v>0.0161</v>
       </c>
       <c r="E105" t="n">
         <v>-0.039</v>
@@ -2697,13 +2697,13 @@
         <v>-0.09089999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.0103</v>
+        <v>-0.0109</v>
       </c>
       <c r="D106" t="n">
-        <v>0.06220000000000001</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0051</v>
+        <v>0.0043</v>
       </c>
       <c r="F106" t="n">
         <v>0.0015</v>
@@ -2720,10 +2720,10 @@
         <v>-0.0244</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.0229</v>
+        <v>-0.0214</v>
       </c>
       <c r="E107" t="n">
-        <v>0.07869999999999999</v>
+        <v>0.0793</v>
       </c>
       <c r="F107" t="n">
         <v>0.0008</v>
@@ -2737,10 +2737,10 @@
         <v>-0.07830000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.0279</v>
+        <v>-0.0284</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.06279999999999999</v>
+        <v>-0.06270000000000001</v>
       </c>
       <c r="E108" t="n">
         <v>0.07199999999999999</v>
@@ -2757,13 +2757,13 @@
         <v>0.0174</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0351</v>
+        <v>0.0349</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0014</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.0507</v>
+        <v>-0.0509</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -2777,13 +2777,13 @@
         <v>-0.08119999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0033</v>
+        <v>0.0018</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1112</v>
+        <v>-0.1111</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.0182</v>
+        <v>-0.0218</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>-0.1009</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0024</v>
+        <v>0.0014</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.0702</v>
+        <v>-0.06899999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.04040000000000001</v>
+        <v>0.0442</v>
       </c>
       <c r="F111" t="n">
         <v>0.0001</v>
@@ -2820,10 +2820,10 @@
         <v>0.0002</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0342</v>
+        <v>0.0336</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.1159</v>
+        <v>-0.1185</v>
       </c>
       <c r="F112" t="n">
         <v>0.0002</v>
@@ -2837,13 +2837,13 @@
         <v>0.1019</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0515</v>
+        <v>0.0529</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0522</v>
+        <v>0.0527</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.3438</v>
+        <v>-0.3429</v>
       </c>
       <c r="F113" t="n">
         <v>0.0001</v>
@@ -2857,13 +2857,13 @@
         <v>0.0521</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.0263</v>
+        <v>-0.0252</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0049</v>
+        <v>0.0037</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.1247</v>
+        <v>-0.1249</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         <v>0.0044</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0264</v>
+        <v>0.0267</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.0261</v>
+        <v>-0.0271</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0531</v>
+        <v>0.0549</v>
       </c>
       <c r="F115" t="n">
         <v>0.0001</v>
@@ -2897,13 +2897,13 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0191</v>
+        <v>0.0188</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0488</v>
+        <v>0.0485</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.05359999999999999</v>
+        <v>-0.0557</v>
       </c>
       <c r="F116" t="n">
         <v>0.0001</v>
@@ -2917,13 +2917,13 @@
         <v>0.03340000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.0109</v>
+        <v>-0.0107</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0751</v>
+        <v>0.0764</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.0881</v>
+        <v>-0.0906</v>
       </c>
       <c r="F117" t="n">
         <v>0.0001</v>
@@ -2937,13 +2937,13 @@
         <v>0.04090000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0242</v>
+        <v>0.0244</v>
       </c>
       <c r="D118" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0105</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.0494</v>
+        <v>-0.0478</v>
       </c>
       <c r="F118" t="n">
         <v>0.0001</v>
@@ -2957,13 +2957,13 @@
         <v>-0.0259</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.0418</v>
+        <v>-0.0434</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.0403</v>
+        <v>-0.042</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0266</v>
+        <v>0.0261</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>0.0556</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.0248</v>
+        <v>-0.0239</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.0025</v>
+        <v>-0.0033</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0033</v>
+        <v>0.003</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0.0276</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0614</v>
+        <v>0.06050000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.001</v>
+        <v>-0.0016</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0292</v>
+        <v>0.0303</v>
       </c>
       <c r="F121" t="n">
         <v>0.0001</v>
@@ -3017,13 +3017,13 @@
         <v>-0.0336</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0037</v>
+        <v>0.004</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0033</v>
+        <v>0.0043</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.0536</v>
+        <v>-0.05400000000000001</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0.0119</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0319</v>
+        <v>0.0322</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0363</v>
+        <v>0.0374</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3057,13 +3057,13 @@
         <v>0.06319999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0145</v>
+        <v>0.0149</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0212</v>
+        <v>0.0222</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0372</v>
+        <v>0.0377</v>
       </c>
       <c r="F124" t="n">
         <v>0.0001</v>
@@ -3077,13 +3077,13 @@
         <v>0.0201</v>
       </c>
       <c r="C125" t="n">
-        <v>0.04870000000000001</v>
+        <v>0.0488</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0292</v>
+        <v>0.029</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0322</v>
+        <v>0.03170000000000001</v>
       </c>
       <c r="F125" t="n">
         <v>0.0001</v>
@@ -3097,13 +3097,13 @@
         <v>-0.0788</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0015</v>
+        <v>0.001</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.0238</v>
+        <v>-0.0243</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.0016</v>
+        <v>-0.0024</v>
       </c>
       <c r="F126" t="n">
         <v>0.0001</v>
@@ -3117,13 +3117,13 @@
         <v>-0.0556</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.0183</v>
+        <v>-0.018</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.04509999999999999</v>
+        <v>-0.0469</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.0298</v>
+        <v>-0.0275</v>
       </c>
       <c r="F127" t="n">
         <v>0.0001</v>
@@ -3137,13 +3137,13 @@
         <v>0.0694</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0019</v>
+        <v>0.0025</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.0035</v>
+        <v>-0.0029</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0191</v>
+        <v>0.0184</v>
       </c>
       <c r="F128" t="n">
         <v>0.0001</v>
@@ -3157,13 +3157,13 @@
         <v>-0.04759999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.0301</v>
+        <v>-0.0294</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.0189</v>
+        <v>-0.0195</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.0017</v>
+        <v>-0.0004999999999999999</v>
       </c>
       <c r="F129" t="n">
         <v>0.0001</v>
@@ -3177,13 +3177,13 @@
         <v>0.09549999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0394</v>
+        <v>0.0397</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.0322</v>
+        <v>-0.0316</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0136</v>
+        <v>0.0142</v>
       </c>
       <c r="F130" t="n">
         <v>0.0001</v>
@@ -3197,13 +3197,13 @@
         <v>0.0389</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0108</v>
+        <v>0.0122</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.0245</v>
+        <v>-0.0248</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0167</v>
+        <v>0.0159</v>
       </c>
       <c r="F131" t="n">
         <v>0.0001</v>
@@ -3217,13 +3217,13 @@
         <v>0.0061</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0379</v>
+        <v>0.0378</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.0094</v>
+        <v>-0.008700000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0255</v>
+        <v>0.0267</v>
       </c>
       <c r="F132" t="n">
         <v>0.0001</v>
@@ -3237,13 +3237,13 @@
         <v>0.0683</v>
       </c>
       <c r="C133" t="n">
-        <v>0.006900000000000001</v>
+        <v>0.0068</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0365</v>
+        <v>0.0379</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.0317</v>
+        <v>-0.0302</v>
       </c>
       <c r="F133" t="n">
         <v>0.0001</v>
@@ -3257,10 +3257,10 @@
         <v>0.02</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.0251</v>
+        <v>-0.0243</v>
       </c>
       <c r="D134" t="n">
-        <v>0.008299999999999998</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="E134" t="n">
         <v>-0.0028</v>
@@ -3277,13 +3277,13 @@
         <v>0.035</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0154</v>
+        <v>0.0148</v>
       </c>
       <c r="D135" t="n">
-        <v>0.013</v>
+        <v>0.0125</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0209</v>
+        <v>0.02</v>
       </c>
       <c r="F135" t="n">
         <v>0.0001</v>
@@ -3297,13 +3297,13 @@
         <v>0.0047</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0259</v>
+        <v>0.0257</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.0175</v>
+        <v>-0.0187</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0353</v>
+        <v>0.03410000000000001</v>
       </c>
       <c r="F136" t="n">
         <v>0.0001</v>
@@ -3317,13 +3317,13 @@
         <v>0.029</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.0037</v>
+        <v>-0.0032</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.0243</v>
+        <v>-0.0248</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>-0.0127</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.0058</v>
+        <v>-0.006500000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.0205</v>
+        <v>-0.02</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.005699999999999999</v>
+        <v>-0.0062</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -3357,13 +3357,13 @@
         <v>-0.0175</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.0011</v>
+        <v>-0.0014</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.0042</v>
+        <v>-0.0038</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0177</v>
+        <v>0.0178</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -3377,13 +3377,13 @@
         <v>-0.0235</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.0137</v>
+        <v>-0.0129</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.008800000000000001</v>
+        <v>-0.0091</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.0001</v>
+        <v>0.0016</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -3397,13 +3397,13 @@
         <v>-0.0598</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.0302</v>
+        <v>-0.0306</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.0255</v>
+        <v>-0.0239</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.0033</v>
+        <v>-0.002700000000000001</v>
       </c>
       <c r="F141" t="n">
         <v>0.0001</v>
@@ -3417,13 +3417,13 @@
         <v>-0.0759</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.0335</v>
+        <v>-0.0333</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.0171</v>
+        <v>-0.0176</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.0252</v>
+        <v>-0.0242</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -3437,13 +3437,13 @@
         <v>0.1135</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0332</v>
+        <v>0.033</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0013</v>
+        <v>0.0012</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.0144</v>
+        <v>-0.0143</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -3457,13 +3457,13 @@
         <v>-0.0028</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.0014</v>
+        <v>-0.0017</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.0048</v>
+        <v>-0.0046</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0401</v>
+        <v>0.0385</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0.0074</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.0066</v>
+        <v>-0.006</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0168</v>
+        <v>0.0161</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0198</v>
+        <v>0.0181</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -3497,13 +3497,13 @@
         <v>0.0505</v>
       </c>
       <c r="C146" t="n">
-        <v>0.021</v>
+        <v>0.0206</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.009000000000000001</v>
+        <v>-0.009399999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.0794</v>
+        <v>-0.0793</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0.0442</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.0184</v>
+        <v>-0.0186</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0046</v>
+        <v>0.0043</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.0028</v>
+        <v>-0.0029</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -3537,13 +3537,13 @@
         <v>0.0311</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.0068</v>
+        <v>-0.0066</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0121</v>
+        <v>0.0112</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0151</v>
+        <v>0.013</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>-0.008500000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.0039</v>
+        <v>-0.004099999999999999</v>
       </c>
       <c r="D149" t="n">
         <v>-0.0077</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0383</v>
+        <v>0.0375</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -3577,13 +3577,13 @@
         <v>-0.0618</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0017</v>
+        <v>0.001</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.0103</v>
+        <v>-0.0105</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0664</v>
+        <v>0.065</v>
       </c>
       <c r="F150" t="n">
         <v>0.0001</v>
@@ -3597,13 +3597,13 @@
         <v>0.0389</v>
       </c>
       <c r="C151" t="n">
-        <v>0.007800000000000001</v>
+        <v>0.0064</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0058</v>
+        <v>0.0059</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.0076</v>
+        <v>-0.0106</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -3617,13 +3617,13 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.0262</v>
+        <v>-0.0272</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.0005</v>
+        <v>-0.0012</v>
       </c>
       <c r="E152" t="n">
-        <v>0.031</v>
+        <v>0.0302</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -3637,13 +3637,13 @@
         <v>0.0256</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0113</v>
+        <v>0.0131</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.0246</v>
+        <v>-0.0236</v>
       </c>
       <c r="F153" t="n">
         <v>0.0001</v>
@@ -3657,13 +3657,13 @@
         <v>0.0274</v>
       </c>
       <c r="C154" t="n">
-        <v>0.005</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0157</v>
+        <v>0.0159</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.0105</v>
+        <v>-0.0113</v>
       </c>
       <c r="F154" t="n">
         <v>0.0001</v>
@@ -3677,13 +3677,13 @@
         <v>-0.0175</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.0108</v>
+        <v>-0.0116</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0362</v>
+        <v>0.0357</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0009000000000000001</v>
+        <v>0.0015</v>
       </c>
       <c r="F155" t="n">
         <v>0.0001</v>
@@ -3697,13 +3697,13 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0054</v>
+        <v>0.0062</v>
       </c>
       <c r="D156" t="n">
         <v>-0.008200000000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0041</v>
+        <v>0.005</v>
       </c>
       <c r="F156" t="n">
         <v>0.0001</v>
@@ -3717,13 +3717,13 @@
         <v>0.0119</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0146</v>
+        <v>0.0153</v>
       </c>
       <c r="D157" t="n">
         <v>0.0354</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.0294</v>
+        <v>-0.0285</v>
       </c>
       <c r="F157" t="n">
         <v>0.0001</v>
@@ -3737,13 +3737,13 @@
         <v>0.0557</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0036</v>
+        <v>0.0031</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0098</v>
+        <v>0.0095</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.019</v>
+        <v>-0.0179</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         <v>0.0129</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.0042</v>
+        <v>-0.0033</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0013</v>
+        <v>0.001</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0131</v>
+        <v>0.0129</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -3777,13 +3777,13 @@
         <v>0.0403</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0075</v>
+        <v>0.0083</v>
       </c>
       <c r="D160" t="n">
         <v>-0.0023</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0196</v>
+        <v>0.0192</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0.0155</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.024</v>
+        <v>-0.0236</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0053</v>
+        <v>0.005</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0027</v>
+        <v>0.0022</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -3817,13 +3817,13 @@
         <v>0.028</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0166</v>
+        <v>0.0172</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0261</v>
+        <v>0.0267</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.0174</v>
+        <v>-0.0202</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -3837,13 +3837,13 @@
         <v>-0.012</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0116</v>
+        <v>0.0132</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.0009</v>
+        <v>0.0005</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0058</v>
+        <v>0.0052</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -3857,13 +3857,13 @@
         <v>0.0565</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0186</v>
+        <v>0.0187</v>
       </c>
       <c r="D164" t="n">
-        <v>0.005600000000000001</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0178</v>
+        <v>0.0175</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -3877,10 +3877,10 @@
         <v>-0.0271</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0029</v>
+        <v>0.0026</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.0266</v>
+        <v>-0.0268</v>
       </c>
       <c r="E165" t="n">
         <v>0.0002</v>
@@ -3897,13 +3897,13 @@
         <v>0.0377</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0289</v>
+        <v>0.029</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.0115</v>
+        <v>-0.0123</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0296</v>
+        <v>0.0307</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -3917,13 +3917,13 @@
         <v>0.0418</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.0153</v>
+        <v>-0.0156</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0121</v>
+        <v>0.0126</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0017</v>
+        <v>0.0008</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0.0313</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0119</v>
+        <v>0.0129</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0029</v>
+        <v>0.0028</v>
       </c>
       <c r="E168" t="n">
         <v>0.0044</v>
@@ -3957,13 +3957,13 @@
         <v>0.0281</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.0059</v>
+        <v>-0.0046</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.0005</v>
+        <v>-0.0001</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0007000000000000001</v>
+        <v>0.0002</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         <v>-0.0332</v>
       </c>
       <c r="C170" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0092</v>
       </c>
       <c r="D170" t="n">
         <v>-0.0202</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0174</v>
+        <v>0.0171</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -3997,13 +3997,13 @@
         <v>0.04650000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0031</v>
+        <v>0.0037</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.0036</v>
+        <v>-0.0031</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0205</v>
+        <v>0.0207</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -4017,13 +4017,13 @@
         <v>0.0043</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.0185</v>
+        <v>-0.0187</v>
       </c>
       <c r="D172" t="n">
-        <v>0.049</v>
+        <v>0.0492</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.0338</v>
+        <v>-0.0329</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>-0.0019</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.0421</v>
+        <v>-0.042</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0112</v>
+        <v>0.0114</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.0377</v>
+        <v>-0.0389</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -4057,13 +4057,13 @@
         <v>0.0206</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.019</v>
+        <v>-0.0189</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.0012</v>
+        <v>-0.0013</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0121</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -4077,13 +4077,13 @@
         <v>0.0261</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0308</v>
+        <v>0.0309</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.0067</v>
+        <v>-0.0069</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0074</v>
+        <v>0.0069</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -4097,13 +4097,13 @@
         <v>-0.0204</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.04269999999999999</v>
+        <v>-0.0428</v>
       </c>
       <c r="D176" t="n">
         <v>0.0002</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.0024</v>
+        <v>-0.0014</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>0.0424</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0036</v>
+        <v>0.0039</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.0042</v>
+        <v>-0.0044</v>
       </c>
       <c r="E177" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>-0.0197</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.0373</v>
+        <v>-0.0372</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.0138</v>
+        <v>-0.0135</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0044</v>
+        <v>0.005</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -4157,13 +4157,13 @@
         <v>0.0252</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0428</v>
+        <v>0.04219999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.018</v>
+        <v>-0.0183</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.0004</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0.0255</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.0204</v>
+        <v>-0.0205</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.0307</v>
+        <v>-0.0309</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0106</v>
+        <v>0.0068</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>-0.0005999999999999999</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0248</v>
+        <v>0.025</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0223</v>
+        <v>0.0227</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0109</v>
+        <v>0.0112</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -4217,13 +4217,13 @@
         <v>-0.0311</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.0051</v>
+        <v>-0.0054</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.0356</v>
+        <v>-0.0361</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0381</v>
+        <v>0.0385</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -4237,13 +4237,13 @@
         <v>0.0614</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0052</v>
+        <v>0.0061</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.0181</v>
+        <v>-0.0187</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.0283</v>
+        <v>-0.0279</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -4257,13 +4257,13 @@
         <v>-0.0112</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0302</v>
+        <v>0.0307</v>
       </c>
       <c r="D184" t="n">
         <v>-0.004099999999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>0.03</v>
+        <v>0.0274</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4280,10 +4280,10 @@
         <v>-0.0304</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0188</v>
+        <v>0.0183</v>
       </c>
       <c r="E185" t="n">
-        <v>-0.0732</v>
+        <v>-0.0727</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -4297,13 +4297,13 @@
         <v>0.0136</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0089</v>
+        <v>0.0092</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.011</v>
+        <v>-0.0113</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0603</v>
+        <v>0.0583</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -4317,13 +4317,13 @@
         <v>-0.0153</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0285</v>
+        <v>0.029</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.0074</v>
+        <v>-0.007800000000000001</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0307</v>
+        <v>0.0302</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -4337,13 +4337,13 @@
         <v>0.0154</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.0409</v>
+        <v>-0.042</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.0421</v>
+        <v>-0.0407</v>
       </c>
       <c r="E188" t="n">
-        <v>0.1029</v>
+        <v>0.1006</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -4357,10 +4357,10 @@
         <v>-0.0604</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0044</v>
+        <v>0.0036</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0273</v>
+        <v>0.028</v>
       </c>
       <c r="E189" t="n">
         <v>-0.0209</v>
@@ -4377,13 +4377,13 @@
         <v>-0.0307</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.0261</v>
+        <v>-0.0263</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0039</v>
+        <v>0.0058</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0535</v>
+        <v>0.0524</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -4397,13 +4397,13 @@
         <v>0.0775</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.0198</v>
+        <v>-0.0186</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.0025</v>
+        <v>-0.004500000000000001</v>
       </c>
       <c r="E191" t="n">
-        <v>-0.0403</v>
+        <v>-0.0327</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -4417,13 +4417,13 @@
         <v>0.005600000000000001</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0368</v>
+        <v>0.036</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.0049</v>
+        <v>-0.0039</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0221</v>
+        <v>0.0228</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -4437,13 +4437,13 @@
         <v>-0.0216</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.0285</v>
+        <v>-0.028</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.0244</v>
+        <v>-0.0258</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0342</v>
+        <v>0.0337</v>
       </c>
       <c r="F193" t="n">
         <v>0.0001</v>
@@ -4457,13 +4457,13 @@
         <v>-0.05759999999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.0335</v>
+        <v>-0.0338</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0202</v>
+        <v>0.0208</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0135</v>
+        <v>0.014</v>
       </c>
       <c r="F194" t="n">
         <v>0.0001</v>
@@ -4477,13 +4477,13 @@
         <v>-0.0006000000000000001</v>
       </c>
       <c r="C195" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.008300000000000002</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.0057</v>
+        <v>-0.0056</v>
       </c>
       <c r="E195" t="n">
-        <v>-0.0404</v>
+        <v>-0.0425</v>
       </c>
       <c r="F195" t="n">
         <v>0.0002</v>
@@ -4497,13 +4497,13 @@
         <v>0.0698</v>
       </c>
       <c r="C196" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.007699999999999999</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0113</v>
+        <v>0.0112</v>
       </c>
       <c r="E196" t="n">
-        <v>-0.0511</v>
+        <v>-0.0502</v>
       </c>
       <c r="F196" t="n">
         <v>0.0002</v>
@@ -4517,13 +4517,13 @@
         <v>0.009299999999999999</v>
       </c>
       <c r="C197" t="n">
-        <v>0.007</v>
+        <v>0.006900000000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0329</v>
+        <v>0.032</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.0625</v>
+        <v>-0.0607</v>
       </c>
       <c r="F197" t="n">
         <v>0.0001</v>
@@ -4537,13 +4537,13 @@
         <v>0.0179</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.0026</v>
+        <v>-0.0018</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.0159</v>
+        <v>-0.0164</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0215</v>
+        <v>0.0138</v>
       </c>
       <c r="F198" t="n">
         <v>0.0001</v>
@@ -4557,13 +4557,13 @@
         <v>-0.0003</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0066</v>
+        <v>0.005999999999999999</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.0138</v>
+        <v>-0.0143</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0413</v>
+        <v>0.0416</v>
       </c>
       <c r="F199" t="n">
         <v>0.0002</v>
@@ -4577,13 +4577,13 @@
         <v>0.0397</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0262</v>
+        <v>0.0253</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.0121</v>
+        <v>-0.0127</v>
       </c>
       <c r="E200" t="n">
-        <v>-0.0306</v>
+        <v>-0.033</v>
       </c>
       <c r="F200" t="n">
         <v>0.0002</v>
@@ -4597,13 +4597,13 @@
         <v>0.0052</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0115</v>
+        <v>0.0119</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0333</v>
+        <v>0.0313</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.0315</v>
+        <v>-0.0347</v>
       </c>
       <c r="F201" t="n">
         <v>0.0002</v>
@@ -4617,13 +4617,13 @@
         <v>0.0027</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0206</v>
+        <v>0.0215</v>
       </c>
       <c r="D202" t="n">
         <v>-0.0119</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.0051</v>
+        <v>0.0017</v>
       </c>
       <c r="F202" t="n">
         <v>0.0002</v>
@@ -4637,13 +4637,13 @@
         <v>-0.02</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.0441</v>
+        <v>-0.0439</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0409</v>
+        <v>0.0414</v>
       </c>
       <c r="E203" t="n">
-        <v>0.0071</v>
+        <v>0.0062</v>
       </c>
       <c r="F203" t="n">
         <v>0.0002</v>
@@ -4657,13 +4657,13 @@
         <v>0.04870000000000001</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0548</v>
+        <v>0.0568</v>
       </c>
       <c r="D204" t="n">
-        <v>0.08230000000000001</v>
+        <v>0.08220000000000001</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.0406</v>
+        <v>-0.0462</v>
       </c>
       <c r="F204" t="n">
         <v>0.0001</v>
@@ -4677,13 +4677,13 @@
         <v>0.0185</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0014</v>
+        <v>0.0012</v>
       </c>
       <c r="D205" t="n">
-        <v>0.0354</v>
+        <v>0.03630000000000001</v>
       </c>
       <c r="E205" t="n">
-        <v>-0.0035</v>
+        <v>-0.0022</v>
       </c>
       <c r="F205" t="n">
         <v>0.0003</v>
@@ -4697,13 +4697,13 @@
         <v>0.0198</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.0102</v>
+        <v>-0.0109</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.0277</v>
+        <v>-0.027</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.0094</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="F206" t="n">
         <v>0.0004</v>
@@ -4717,13 +4717,13 @@
         <v>0.03609999999999999</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.0197</v>
+        <v>-0.02</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.0175</v>
+        <v>-0.0163</v>
       </c>
       <c r="E207" t="n">
-        <v>-0.0159</v>
+        <v>-0.0156</v>
       </c>
       <c r="F207" t="n">
         <v>0.0004</v>
@@ -4737,13 +4737,13 @@
         <v>0.002</v>
       </c>
       <c r="C208" t="n">
-        <v>0.012</v>
+        <v>0.0116</v>
       </c>
       <c r="D208" t="n">
         <v>-0.033</v>
       </c>
       <c r="E208" t="n">
-        <v>-0.0089</v>
+        <v>-0.01</v>
       </c>
       <c r="F208" t="n">
         <v>0.0003</v>
@@ -4760,10 +4760,10 @@
         <v>0.0077</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.0206</v>
+        <v>-0.0208</v>
       </c>
       <c r="E209" t="n">
-        <v>0.0049</v>
+        <v>0.005299999999999999</v>
       </c>
       <c r="F209" t="n">
         <v>0.0005</v>
@@ -4777,13 +4777,13 @@
         <v>0.0112</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.0255</v>
+        <v>-0.0246</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.03609999999999999</v>
+        <v>-0.0369</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0152</v>
+        <v>0.0156</v>
       </c>
       <c r="F210" t="n">
         <v>0.0005999999999999999</v>
@@ -4797,13 +4797,13 @@
         <v>0.008400000000000001</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0221</v>
+        <v>0.0229</v>
       </c>
       <c r="D211" t="n">
-        <v>0.0151</v>
+        <v>0.0155</v>
       </c>
       <c r="E211" t="n">
-        <v>-0.0026</v>
+        <v>-0.0003</v>
       </c>
       <c r="F211" t="n">
         <v>0.0005999999999999999</v>
@@ -4817,13 +4817,13 @@
         <v>0.0194</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.014</v>
+        <v>-0.0139</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.0029</v>
+        <v>-0.0015</v>
       </c>
       <c r="E212" t="n">
-        <v>0.0173</v>
+        <v>0.0169</v>
       </c>
       <c r="F212" t="n">
         <v>0.0007000000000000001</v>
@@ -4837,13 +4837,13 @@
         <v>0.0025</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.0153</v>
+        <v>-0.0156</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.021</v>
+        <v>-0.0198</v>
       </c>
       <c r="E213" t="n">
-        <v>0.03639999999999999</v>
+        <v>0.0338</v>
       </c>
       <c r="F213" t="n">
         <v>0.0009</v>
@@ -4857,13 +4857,13 @@
         <v>0.026</v>
       </c>
       <c r="C214" t="n">
-        <v>0.04559999999999999</v>
+        <v>0.0454</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0323</v>
+        <v>0.03179999999999999</v>
       </c>
       <c r="E214" t="n">
-        <v>-0.0109</v>
+        <v>-0.0123</v>
       </c>
       <c r="F214" t="n">
         <v>0.0009</v>
@@ -4877,13 +4877,13 @@
         <v>0.0234</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.0186</v>
+        <v>-0.0184</v>
       </c>
       <c r="D215" t="n">
-        <v>0.0021</v>
+        <v>0.0031</v>
       </c>
       <c r="E215" t="n">
-        <v>0.04389999999999999</v>
+        <v>0.0437</v>
       </c>
       <c r="F215" t="n">
         <v>0.0009</v>
@@ -4897,13 +4897,13 @@
         <v>0.032</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.004999999999999999</v>
+        <v>-0.0048</v>
       </c>
       <c r="D216" t="n">
-        <v>-9.999999999999994e-05</v>
+        <v>0.0003</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.006299999999999999</v>
+        <v>-0.007899999999999999</v>
       </c>
       <c r="F216" t="n">
         <v>0.0008</v>
@@ -4917,13 +4917,13 @@
         <v>0.0115</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.012</v>
+        <v>-0.0123</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0026</v>
+        <v>0.0012</v>
       </c>
       <c r="E217" t="n">
-        <v>-0.0154</v>
+        <v>-0.0146</v>
       </c>
       <c r="F217" t="n">
         <v>0.0009</v>
@@ -4937,13 +4937,13 @@
         <v>0.0569</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.0298</v>
+        <v>-0.0307</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.0121</v>
+        <v>-0.0125</v>
       </c>
       <c r="E218" t="n">
-        <v>0.04049999999999999</v>
+        <v>0.0416</v>
       </c>
       <c r="F218" t="n">
         <v>0.0011</v>
@@ -4957,13 +4957,13 @@
         <v>-0.0354</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0041</v>
+        <v>0.0037</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.0092</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0408</v>
+        <v>0.0367</v>
       </c>
       <c r="F219" t="n">
         <v>0.0011</v>
@@ -4977,13 +4977,13 @@
         <v>-0.0223</v>
       </c>
       <c r="C220" t="n">
-        <v>0.0417</v>
+        <v>0.0418</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="E220" t="n">
-        <v>-0.0116</v>
+        <v>-0.0101</v>
       </c>
       <c r="F220" t="n">
         <v>0.0012</v>
@@ -4997,13 +4997,13 @@
         <v>0.0043</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0127</v>
+        <v>0.0124</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0064</v>
+        <v>0.0062</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0041</v>
+        <v>0.005</v>
       </c>
       <c r="F221" t="n">
         <v>0.0014</v>
@@ -5017,13 +5017,13 @@
         <v>0.0279</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0542</v>
+        <v>0.05449999999999999</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.0301</v>
+        <v>-0.0299</v>
       </c>
       <c r="E222" t="n">
-        <v>0.0394</v>
+        <v>0.0401</v>
       </c>
       <c r="F222" t="n">
         <v>0.0014</v>
@@ -5037,13 +5037,13 @@
         <v>0.0062</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0133</v>
+        <v>0.0127</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.0217</v>
+        <v>-0.0219</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.0224</v>
+        <v>-0.0219</v>
       </c>
       <c r="F223" t="n">
         <v>0.0014</v>
@@ -5057,13 +5057,13 @@
         <v>0.0335</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.0205</v>
+        <v>-0.0209</v>
       </c>
       <c r="D224" t="n">
-        <v>0.007299999999999999</v>
+        <v>0.0061</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.0151</v>
+        <v>-0.0127</v>
       </c>
       <c r="F224" t="n">
         <v>0.0016</v>
@@ -5077,13 +5077,13 @@
         <v>0.036</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0131</v>
+        <v>0.013</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.0376</v>
+        <v>-0.0382</v>
       </c>
       <c r="E225" t="n">
-        <v>0.05379999999999999</v>
+        <v>0.0544</v>
       </c>
       <c r="F225" t="n">
         <v>0.0016</v>
@@ -5097,13 +5097,13 @@
         <v>0.0021</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.0213</v>
+        <v>-0.0215</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.0148</v>
+        <v>-0.0155</v>
       </c>
       <c r="E226" t="n">
-        <v>0.0009000000000000001</v>
+        <v>0.0018</v>
       </c>
       <c r="F226" t="n">
         <v>0.0015</v>
@@ -5117,13 +5117,13 @@
         <v>-0.07489999999999999</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.0459</v>
+        <v>-0.0463</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0365</v>
+        <v>0.0362</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.0165</v>
+        <v>-0.0187</v>
       </c>
       <c r="F227" t="n">
         <v>0.0019</v>
@@ -5137,13 +5137,13 @@
         <v>0.0187</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.005299999999999999</v>
+        <v>-0.005000000000000001</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0052</v>
+        <v>0.004399999999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>-0.0115</v>
+        <v>-0.0123</v>
       </c>
       <c r="F228" t="n">
         <v>0.0018</v>
@@ -5157,13 +5157,13 @@
         <v>-0.0936</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.0229</v>
+        <v>-0.0223</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.017</v>
+        <v>-0.0171</v>
       </c>
       <c r="E229" t="n">
-        <v>0.0204</v>
+        <v>0.0231</v>
       </c>
       <c r="F229" t="n">
         <v>0.0019</v>
@@ -5177,10 +5177,10 @@
         <v>0.08620000000000001</v>
       </c>
       <c r="C230" t="n">
-        <v>0.031</v>
+        <v>0.0311</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.0025</v>
+        <v>-0.0023</v>
       </c>
       <c r="E230" t="n">
         <v>-0.0844</v>
@@ -5197,13 +5197,13 @@
         <v>0.03580000000000001</v>
       </c>
       <c r="C231" t="n">
-        <v>0.023</v>
+        <v>0.0222</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.0253</v>
+        <v>-0.025</v>
       </c>
       <c r="E231" t="n">
-        <v>0.0104</v>
+        <v>0.0103</v>
       </c>
       <c r="F231" t="n">
         <v>0.0018</v>
@@ -5217,13 +5217,13 @@
         <v>0.0129</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.0286</v>
+        <v>-0.0279</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.04000000000000001</v>
+        <v>-0.0386</v>
       </c>
       <c r="E232" t="n">
-        <v>0.0233</v>
+        <v>0.0235</v>
       </c>
       <c r="F232" t="n">
         <v>0.0019</v>
@@ -5237,13 +5237,13 @@
         <v>0.04169999999999999</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.0154</v>
+        <v>-0.0153</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0223</v>
+        <v>0.0238</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.0234</v>
+        <v>-0.0275</v>
       </c>
       <c r="F233" t="n">
         <v>0.0021</v>
@@ -5257,13 +5257,13 @@
         <v>-0.0673</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.0097</v>
+        <v>-0.0113</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.0207</v>
+        <v>-0.0216</v>
       </c>
       <c r="E234" t="n">
-        <v>0.0781</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="F234" t="n">
         <v>0.0021</v>
@@ -5277,13 +5277,13 @@
         <v>0.0711</v>
       </c>
       <c r="C235" t="n">
-        <v>0.004</v>
+        <v>0.0043</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.006100000000000001</v>
+        <v>-0.005299999999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.0196</v>
+        <v>-0.0205</v>
       </c>
       <c r="F235" t="n">
         <v>0.0018</v>
@@ -5297,13 +5297,13 @@
         <v>0.0138</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.0189</v>
+        <v>-0.0175</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0053</v>
+        <v>0.0061</v>
       </c>
       <c r="E236" t="n">
-        <v>0.0291</v>
+        <v>0.0309</v>
       </c>
       <c r="F236" t="n">
         <v>0.0019</v>
@@ -5317,13 +5317,13 @@
         <v>-0.0242</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.0224</v>
+        <v>-0.0216</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.0469</v>
+        <v>-0.04790000000000001</v>
       </c>
       <c r="E237" t="n">
-        <v>0.078</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="F237" t="n">
         <v>0.0016</v>
@@ -5337,13 +5337,13 @@
         <v>0.0161</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.008700000000000001</v>
+        <v>-0.007900000000000001</v>
       </c>
       <c r="D238" t="n">
-        <v>0.06949999999999999</v>
+        <v>0.0701</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.0667</v>
+        <v>-0.0663</v>
       </c>
       <c r="F238" t="n">
         <v>0.0018</v>
@@ -5357,13 +5357,13 @@
         <v>0.0221</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0039</v>
+        <v>0.0043</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.0173</v>
+        <v>-0.0178</v>
       </c>
       <c r="E239" t="n">
-        <v>0.004399999999999999</v>
+        <v>0.0034</v>
       </c>
       <c r="F239" t="n">
         <v>0.0015</v>
@@ -5377,13 +5377,13 @@
         <v>0.0399</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0103</v>
+        <v>0.0092</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.0193</v>
+        <v>-0.019</v>
       </c>
       <c r="E240" t="n">
-        <v>-0.0248</v>
+        <v>-0.0251</v>
       </c>
       <c r="F240" t="n">
         <v>0.0012</v>
@@ -5397,13 +5397,13 @@
         <v>0.0291</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0081</v>
+        <v>0.0086</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0205</v>
+        <v>0.0193</v>
       </c>
       <c r="E241" t="n">
-        <v>-0.0213</v>
+        <v>-0.0174</v>
       </c>
       <c r="F241" t="n">
         <v>0.0014</v>
@@ -5417,13 +5417,13 @@
         <v>0.0001999999999999999</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.0295</v>
+        <v>-0.03</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.06139999999999999</v>
+        <v>-0.0611</v>
       </c>
       <c r="E242" t="n">
-        <v>0.0556</v>
+        <v>0.0616</v>
       </c>
       <c r="F242" t="n">
         <v>0.0013</v>
@@ -5437,13 +5437,13 @@
         <v>-0.0801</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0114</v>
+        <v>0.0115</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.038</v>
+        <v>-0.0367</v>
       </c>
       <c r="E243" t="n">
-        <v>-0.0011</v>
+        <v>-0.0024</v>
       </c>
       <c r="F243" t="n">
         <v>0.0012</v>
@@ -5457,13 +5457,13 @@
         <v>-0.1326</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.0491</v>
+        <v>-0.0477</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.1384</v>
+        <v>-0.139</v>
       </c>
       <c r="E244" t="n">
-        <v>0.0866</v>
+        <v>0.08280000000000001</v>
       </c>
       <c r="F244" t="n">
         <v>0.0012</v>
@@ -5477,13 +5477,13 @@
         <v>0.1365</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0275</v>
+        <v>0.0247</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.0139</v>
+        <v>-0.0118</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.0549</v>
+        <v>-0.0539</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -5497,13 +5497,13 @@
         <v>0.05590000000000001</v>
       </c>
       <c r="C246" t="n">
-        <v>0.025</v>
+        <v>0.0246</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.05039999999999999</v>
+        <v>-0.0479</v>
       </c>
       <c r="E246" t="n">
-        <v>0.0068</v>
+        <v>0.003599999999999999</v>
       </c>
       <c r="F246" t="n">
         <v>0.0001</v>
@@ -5517,13 +5517,13 @@
         <v>0.0247</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0272</v>
+        <v>0.027</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.0234</v>
+        <v>-0.0203</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.007399999999999999</v>
+        <v>-0.0077</v>
       </c>
       <c r="F247" t="n">
         <v>0.0001</v>
@@ -5537,13 +5537,13 @@
         <v>0.0578</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.0217</v>
+        <v>-0.0227</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.0138</v>
+        <v>-0.0152</v>
       </c>
       <c r="E248" t="n">
-        <v>0.0762</v>
+        <v>0.0764</v>
       </c>
       <c r="F248" t="n">
         <v>0.0001</v>
@@ -5557,13 +5557,13 @@
         <v>0.0764</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.0024</v>
+        <v>-0.0025</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.0293</v>
+        <v>-0.0291</v>
       </c>
       <c r="E249" t="n">
-        <v>0.005200000000000001</v>
+        <v>0.0042</v>
       </c>
       <c r="F249" t="n">
         <v>0.0001</v>
@@ -5577,13 +5577,13 @@
         <v>-0.0362</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0007</v>
+        <v>0.0003</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.025</v>
+        <v>-0.0261</v>
       </c>
       <c r="E250" t="n">
-        <v>0.0306</v>
+        <v>0.0319</v>
       </c>
       <c r="F250" t="n">
         <v>0.0001</v>
@@ -5597,13 +5597,13 @@
         <v>-0.0209</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0445</v>
+        <v>0.0442</v>
       </c>
       <c r="D251" t="n">
-        <v>0.04040000000000001</v>
+        <v>0.0417</v>
       </c>
       <c r="E251" t="n">
-        <v>-0.0302</v>
+        <v>-0.0309</v>
       </c>
       <c r="F251" t="n">
         <v>0.0001</v>
@@ -5617,13 +5617,13 @@
         <v>0.1248</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0549</v>
+        <v>0.0566</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0212</v>
+        <v>0.0214</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.1224</v>
+        <v>-0.1244</v>
       </c>
       <c r="F252" t="n">
         <v>0.0001</v>
@@ -5637,13 +5637,13 @@
         <v>0.0464</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0482</v>
+        <v>0.0483</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.0135</v>
+        <v>-0.0142</v>
       </c>
       <c r="E253" t="n">
-        <v>-0.0241</v>
+        <v>-0.0225</v>
       </c>
       <c r="F253" t="n">
         <v>0.0001</v>
@@ -5657,13 +5657,13 @@
         <v>-0.0003</v>
       </c>
       <c r="C254" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.0712</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0285</v>
+        <v>0.0299</v>
       </c>
       <c r="E254" t="n">
-        <v>0.0436</v>
+        <v>0.0452</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -5677,13 +5677,13 @@
         <v>0.0278</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0211</v>
+        <v>0.0203</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0708</v>
+        <v>0.0718</v>
       </c>
       <c r="E255" t="n">
-        <v>-0.0767</v>
+        <v>-0.0793</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -5697,13 +5697,13 @@
         <v>0.0308</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.0248</v>
+        <v>-0.0241</v>
       </c>
       <c r="D256" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.0741</v>
       </c>
       <c r="E256" t="n">
-        <v>-0.0583</v>
+        <v>-0.0611</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -5717,13 +5717,13 @@
         <v>0.0493</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.0309</v>
+        <v>-0.0311</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.0074</v>
+        <v>-0.009300000000000001</v>
       </c>
       <c r="E257" t="n">
-        <v>0.0101</v>
+        <v>0.0114</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -5737,15 +5737,75 @@
         <v>0.0029</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.0022</v>
+        <v>-0.0028</v>
       </c>
       <c r="D258" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0704</v>
       </c>
       <c r="E258" t="n">
-        <v>0.0052</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="F258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-0.0776</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.0224</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-0.0396</v>
+      </c>
+      <c r="D260" t="n">
+        <v>-0.0175</v>
+      </c>
+      <c r="E260" t="n">
+        <v>-0.0229</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.0291</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-0.004500000000000001</v>
+      </c>
+      <c r="D261" t="n">
+        <v>-0.0007000000000000001</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.0251</v>
+      </c>
+      <c r="F261" t="n">
         <v>0</v>
       </c>
     </row>
